--- a/xlsx/tied_three_wc.xlsx
+++ b/xlsx/tied_three_wc.xlsx
@@ -1,43 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldi\Documents\GitHub\tiebreak_wc\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALESSANDRO\Documents\GitHub\tiebreak_wc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25680CB6-C278-4EF8-8696-CFA48559353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C56CF2-DBB1-45D3-BD67-D4F4F370155A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="94D61" sheetId="1" r:id="rId1"/>
     <sheet name="94D93" sheetId="9" r:id="rId2"/>
+    <sheet name="94D95" sheetId="10" r:id="rId3"/>
+    <sheet name="94F43" sheetId="11" r:id="rId4"/>
+    <sheet name="94F77" sheetId="12" r:id="rId5"/>
+    <sheet name="02E07" sheetId="13" r:id="rId6"/>
+    <sheet name="02G48" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
   <si>
     <t>matches</t>
   </si>
@@ -78,13 +72,64 @@
     <t>h2h</t>
   </si>
   <si>
-    <t>1996 FIFA WC, group D, minute 61</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
     <t>Nigeria</t>
+  </si>
+  <si>
+    <t>1994 FIFA WC, group D, minute 95</t>
+  </si>
+  <si>
+    <t>1994 FIFA WC, group D, minute 93</t>
+  </si>
+  <si>
+    <t>1994 FIFA WC, group D, minute 61</t>
+  </si>
+  <si>
+    <t>1994 FIFA WC, group F, minute 43</t>
+  </si>
+  <si>
+    <t>Saudi</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Neth</t>
+  </si>
+  <si>
+    <t>tot goals</t>
+  </si>
+  <si>
+    <t>1994 FIFA WC, group F, minute 77</t>
+  </si>
+  <si>
+    <t>h2h Saudi</t>
+  </si>
+  <si>
+    <t>2002 FIFA WC, group E, minute 07</t>
+  </si>
+  <si>
+    <t>Ire</t>
+  </si>
+  <si>
+    <t>Ger</t>
+  </si>
+  <si>
+    <t>Cam</t>
+  </si>
+  <si>
+    <t>2002 FIFA WC, group G, minute 48</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>ecu</t>
+  </si>
+  <si>
+    <t>cro</t>
   </si>
 </sst>
 </file>
@@ -107,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +183,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -148,25 +199,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
     <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,27 +501,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -484,15 +538,15 @@
         <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -534,12 +588,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -563,9 +617,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -592,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>9</v>
       </c>
@@ -609,18 +663,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>11</v>
       </c>
@@ -631,9 +685,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -645,27 +699,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9953E3-DA09-4EBE-88FE-12CFDCBB824D}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -682,15 +736,15 @@
         <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -732,12 +786,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -761,9 +815,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -790,7 +844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>9</v>
       </c>
@@ -807,18 +861,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>11</v>
       </c>
@@ -829,9 +883,999 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798316E1-4275-453B-B569-5D1D7081C9C9}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=I5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=I5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=I5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=I5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=J5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=J5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=J5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=J5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=K5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=K5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=K5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=K5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <f>I8-I9</f>
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <f>J8-J9</f>
+        <v>-1</v>
+      </c>
+      <c r="K7" s="4">
+        <f>K8-K9</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <f>SUMPRODUCT(($B$6:$B$8=I5)*$E$6:$E$8 + ($C$6:$C$8=I5)*$D$6:$D$8)</f>
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <f>SUMPRODUCT(($B$6:$B$8=J5)*$E$6:$E$8 + ($C$6:$C$8=J5)*$D$6:$D$8)</f>
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <f>SUMPRODUCT(($B$6:$B$8=K5)*$E$6:$E$8 + ($C$6:$C$8=K5)*$D$6:$D$8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B4C37E-B1E2-4E18-AB68-756D6EF53079}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=I5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=I5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=I5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=I5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=J5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=J5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=J5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=J5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=K5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=K5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=K5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=K5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <f>I8-I9</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>J8-J9</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>K8-K9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <f>SUMPRODUCT(($B$6:$B$8=I5)*$E$6:$E$8 + ($C$6:$C$8=I5)*$D$6:$D$8)</f>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f>SUMPRODUCT(($B$6:$B$8=J5)*$E$6:$E$8 + ($C$6:$C$8=J5)*$D$6:$D$8)</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>SUMPRODUCT(($B$6:$B$8=K5)*$E$6:$E$8 + ($C$6:$C$8=K5)*$D$6:$D$8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B11108-9896-4947-BD66-41B206C56087}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=I5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=I5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=I5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=I5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=J5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=J5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=J5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=J5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=K5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=K5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=K5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=K5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <f>I8-I9</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>J8-J9</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>K8-K9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <f>SUMPRODUCT(($B$6:$B$8=I5)*$E$6:$E$8 + ($C$6:$C$8=I5)*$D$6:$D$8)</f>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f>SUMPRODUCT(($B$6:$B$8=J5)*$E$6:$E$8 + ($C$6:$C$8=J5)*$D$6:$D$8)</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>SUMPRODUCT(($B$6:$B$8=K5)*$E$6:$E$8 + ($C$6:$C$8=K5)*$D$6:$D$8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202AD44D-F1DB-40E7-9B2F-61321D0479A3}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=I5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=I5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=I5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=I5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=J5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=J5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=J5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=J5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=K5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=K5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=K5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=K5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <f>I8-I9</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>J8-J9</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>K8-K9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5">
+        <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <f>SUMPRODUCT(($B$6:$B$8=I5)*$E$6:$E$8 + ($C$6:$C$8=I5)*$D$6:$D$8)</f>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f>SUMPRODUCT(($B$6:$B$8=J5)*$E$6:$E$8 + ($C$6:$C$8=J5)*$D$6:$D$8)</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>SUMPRODUCT(($B$6:$B$8=K5)*$E$6:$E$8 + ($C$6:$C$8=K5)*$D$6:$D$8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABCB0D5-E038-4480-9457-D3EE2F315B3C}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=I5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=I5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=I5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=I5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=J5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=J5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=J5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=J5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f>SUMPRODUCT(
+    (B$4:B$10=K5)*(D$4:D$10&gt;E$4:E$10)*3 +
+    (B$4:B$10=K5)*(D$4:D$10=E$4:E$10)*1 +
+    (C$4:C$10=K5)*(E$4:E$10&gt;D$4:D$10)*3 +
+    (C$4:C$10=K5)*(E$4:E$10=D$4:D$10)*1
+)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3">
+        <f>I8-I9</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>J8-J9</f>
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <f>K8-K9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <f>SUMPRODUCT(($B$6:$B$8=I5)*$E$6:$E$8 + ($C$6:$C$8=I5)*$D$6:$D$8)</f>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f>SUMPRODUCT(($B$6:$B$8=J5)*$E$6:$E$8 + ($C$6:$C$8=J5)*$D$6:$D$8)</f>
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <f>SUMPRODUCT(($B$6:$B$8=K5)*$E$6:$E$8 + ($C$6:$C$8=K5)*$D$6:$D$8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/tied_three_wc.xlsx
+++ b/xlsx/tied_three_wc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALESSANDRO\Documents\GitHub\tiebreak_wc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C56CF2-DBB1-45D3-BD67-D4F4F370155A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5AA77D-FB58-4D7B-AFFE-5E56C9151D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="33">
   <si>
     <t>matches</t>
   </si>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +151,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +196,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -199,28 +211,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
     <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,7 +517,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,15 +619,15 @@
       <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <f>I8-I9</f>
         <v>-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <f>J8-J9</f>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <f>K8-K9</f>
         <v>2</v>
       </c>
@@ -679,15 +694,18 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +718,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -802,15 +820,15 @@
       <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <f>I8-I9</f>
         <v>-1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <f>J8-J9</f>
         <v>-1</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <f>K8-K9</f>
         <v>2</v>
       </c>
@@ -1096,7 +1114,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1227,15 +1245,15 @@
       <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
         <v>2</v>
       </c>
@@ -1273,7 +1291,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -1281,7 +1299,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1312,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1425,15 +1443,15 @@
       <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
         <v>2</v>
       </c>
@@ -1472,9 +1490,6 @@
       </c>
       <c r="F13" t="s">
         <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1492,7 +1507,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1627,11 +1642,11 @@
         <f>SUMPRODUCT(($B$6:$B$8=I5)*$D$6:$D$8 + ($C$6:$C$8=I5)*$E$6:$E$8)</f>
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <f>SUMPRODUCT(($B$6:$B$8=J5)*$D$6:$D$8 + ($C$6:$C$8=J5)*$E$6:$E$8)</f>
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <f>SUMPRODUCT(($B$6:$B$8=K5)*$D$6:$D$8 + ($C$6:$C$8=K5)*$E$6:$E$8)</f>
         <v>1</v>
       </c>
@@ -1792,15 +1807,15 @@
       <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="5">
         <f>I8-I9</f>
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <f>J8-J9</f>
         <v>-1</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <f>K8-K9</f>
         <v>0</v>
       </c>
@@ -1867,15 +1882,18 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
